--- a/design-pattern/设计模式分类及概述总览.xlsx
+++ b/design-pattern/设计模式分类及概述总览.xlsx
@@ -177,7 +177,7 @@
     <t>Bridge</t>
   </si>
   <si>
-    <t>将抽象部门与它的实现部分分离，使它们都可以独立的变化</t>
+    <t>将抽象部分与它的实现部分分离，使它们都可以独立的变化</t>
   </si>
   <si>
     <t>Composite</t>
@@ -287,9 +287,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -308,6 +308,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -315,7 +345,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,47 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,30 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,42 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,181 +460,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +691,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -702,15 +711,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,15 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,6 +741,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,161 +784,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,9 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1303,222 +1297,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="8" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1559,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
@@ -1573,13 +1567,13 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1587,37 +1581,37 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1625,13 +1619,13 @@
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" ht="36" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1639,53 +1633,53 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1693,21 +1687,21 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" ht="36" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1715,77 +1709,77 @@
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" ht="36" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" ht="36" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" ht="36" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" ht="36" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>79</v>
       </c>
     </row>
